--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/C3-Cr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/C3-Cr2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>46.85851166666667</v>
+        <v>0.04155</v>
       </c>
       <c r="H2">
-        <v>140.575535</v>
+        <v>0.12465</v>
       </c>
       <c r="I2">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="J2">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7328106666666666</v>
+        <v>0.659041</v>
       </c>
       <c r="N2">
-        <v>2.198432</v>
+        <v>1.977123</v>
       </c>
       <c r="O2">
-        <v>0.4072614640191846</v>
+        <v>0.3819216825298216</v>
       </c>
       <c r="P2">
-        <v>0.4072614640191846</v>
+        <v>0.3819216825298216</v>
       </c>
       <c r="Q2">
-        <v>34.33841717345777</v>
+        <v>0.02738315355</v>
       </c>
       <c r="R2">
-        <v>309.04575456112</v>
+        <v>0.24644838195</v>
       </c>
       <c r="S2">
-        <v>0.05779273550226026</v>
+        <v>5.599614181147767E-05</v>
       </c>
       <c r="T2">
-        <v>0.05779273550226027</v>
+        <v>5.599614181147767E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>46.85851166666667</v>
+        <v>0.04155</v>
       </c>
       <c r="H3">
-        <v>140.575535</v>
+        <v>0.12465</v>
       </c>
       <c r="I3">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="J3">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.878204</v>
       </c>
       <c r="O3">
-        <v>0.3479389450147599</v>
+        <v>0.3628134576423628</v>
       </c>
       <c r="P3">
-        <v>0.3479389450147599</v>
+        <v>0.3628134576423628</v>
       </c>
       <c r="Q3">
-        <v>29.33661468212667</v>
+        <v>0.0260131254</v>
       </c>
       <c r="R3">
-        <v>264.02953213914</v>
+        <v>0.2341181286</v>
       </c>
       <c r="S3">
-        <v>0.04937453011568575</v>
+        <v>5.31945546811628E-05</v>
       </c>
       <c r="T3">
-        <v>0.04937453011568576</v>
+        <v>5.31945546811628E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>46.85851166666667</v>
+        <v>0.04155</v>
       </c>
       <c r="H4">
-        <v>140.575535</v>
+        <v>0.12465</v>
       </c>
       <c r="I4">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="J4">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>1.321449</v>
       </c>
       <c r="O4">
-        <v>0.2447995909660556</v>
+        <v>0.2552648598278156</v>
       </c>
       <c r="P4">
-        <v>0.2447995909660555</v>
+        <v>0.2552648598278155</v>
       </c>
       <c r="Q4">
-        <v>20.64037779446833</v>
+        <v>0.01830206865</v>
       </c>
       <c r="R4">
-        <v>185.763400150215</v>
+        <v>0.16471861785</v>
       </c>
       <c r="S4">
-        <v>0.03473846474975179</v>
+        <v>3.742612149099239E-05</v>
       </c>
       <c r="T4">
-        <v>0.03473846474975179</v>
+        <v>3.742612149099239E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>849.531647</v>
       </c>
       <c r="I5">
-        <v>0.8575703363889615</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="J5">
-        <v>0.8575703363889616</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7328106666666666</v>
+        <v>0.659041</v>
       </c>
       <c r="N5">
-        <v>2.198432</v>
+        <v>1.977123</v>
       </c>
       <c r="O5">
-        <v>0.4072614640191846</v>
+        <v>0.3819216825298216</v>
       </c>
       <c r="P5">
-        <v>0.4072614640191846</v>
+        <v>0.3819216825298216</v>
       </c>
       <c r="Q5">
-        <v>207.5152841975004</v>
+        <v>186.6253953901757</v>
       </c>
       <c r="R5">
-        <v>1867.637557777504</v>
+        <v>1679.628558511581</v>
       </c>
       <c r="S5">
-        <v>0.349255350697193</v>
+        <v>0.3816325277075828</v>
       </c>
       <c r="T5">
-        <v>0.3492553506971931</v>
+        <v>0.3816325277075828</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>849.531647</v>
       </c>
       <c r="I6">
-        <v>0.8575703363889615</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="J6">
-        <v>0.8575703363889616</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.878204</v>
       </c>
       <c r="O6">
-        <v>0.3479389450147599</v>
+        <v>0.3628134576423628</v>
       </c>
       <c r="P6">
-        <v>0.3479389450147599</v>
+        <v>0.3628134576423628</v>
       </c>
       <c r="Q6">
         <v>177.2881930579987</v>
@@ -818,10 +818,10 @@
         <v>1595.593737521988</v>
       </c>
       <c r="S6">
-        <v>0.2983821181191281</v>
+        <v>0.3625387697530669</v>
       </c>
       <c r="T6">
-        <v>0.2983821181191281</v>
+        <v>0.3625387697530669</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>849.531647</v>
       </c>
       <c r="I7">
-        <v>0.8575703363889615</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="J7">
-        <v>0.8575703363889616</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>1.321449</v>
       </c>
       <c r="O7">
-        <v>0.2447995909660556</v>
+        <v>0.2552648598278156</v>
       </c>
       <c r="P7">
-        <v>0.2447995909660555</v>
+        <v>0.2552648598278155</v>
       </c>
       <c r="Q7">
         <v>124.7347494885003</v>
@@ -880,10 +880,10 @@
         <v>1122.612745396503</v>
       </c>
       <c r="S7">
-        <v>0.2099328675726405</v>
+        <v>0.2550715975215794</v>
       </c>
       <c r="T7">
-        <v>0.2099328675726405</v>
+        <v>0.2550715975215793</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.519022</v>
       </c>
       <c r="I8">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874136</v>
       </c>
       <c r="J8">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874135</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7328106666666666</v>
+        <v>0.659041</v>
       </c>
       <c r="N8">
-        <v>2.198432</v>
+        <v>1.977123</v>
       </c>
       <c r="O8">
-        <v>0.4072614640191846</v>
+        <v>0.3819216825298216</v>
       </c>
       <c r="P8">
-        <v>0.4072614640191846</v>
+        <v>0.3819216825298216</v>
       </c>
       <c r="Q8">
-        <v>0.1267816192782222</v>
+        <v>0.1140189259673333</v>
       </c>
       <c r="R8">
-        <v>1.141034573504</v>
+        <v>1.026170333706</v>
       </c>
       <c r="S8">
-        <v>0.0002133778197312507</v>
+        <v>0.0002331586804274109</v>
       </c>
       <c r="T8">
-        <v>0.0002133778197312507</v>
+        <v>0.0002331586804274108</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.519022</v>
       </c>
       <c r="I9">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874136</v>
       </c>
       <c r="J9">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874135</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>1.878204</v>
       </c>
       <c r="O9">
-        <v>0.3479389450147599</v>
+        <v>0.3628134576423628</v>
       </c>
       <c r="P9">
-        <v>0.3479389450147599</v>
+        <v>0.3628134576423628</v>
       </c>
       <c r="Q9">
         <v>0.1083143551653333</v>
@@ -1004,10 +1004,10 @@
         <v>0.974829196488</v>
       </c>
       <c r="S9">
-        <v>0.0001822967799461226</v>
+        <v>0.0002214933346147331</v>
       </c>
       <c r="T9">
-        <v>0.0001822967799461226</v>
+        <v>0.000221493334614733</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.519022</v>
       </c>
       <c r="I10">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874136</v>
       </c>
       <c r="J10">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874135</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>1.321449</v>
       </c>
       <c r="O10">
-        <v>0.2447995909660556</v>
+        <v>0.2552648598278156</v>
       </c>
       <c r="P10">
-        <v>0.2447995909660555</v>
+        <v>0.2552648598278155</v>
       </c>
       <c r="Q10">
         <v>0.07620678920866665</v>
@@ -1066,10 +1066,10 @@
         <v>0.685861102878</v>
       </c>
       <c r="S10">
-        <v>0.0001282586436633207</v>
+        <v>0.0001558361847452696</v>
       </c>
       <c r="T10">
-        <v>0.0001282586436633207</v>
+        <v>0.0001558361847452696</v>
       </c>
     </row>
   </sheetData>
